--- a/result.xlsx
+++ b/result.xlsx
@@ -22,7 +22,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>5</t>
+    <t>8</t>
   </si>
   <si>
     <t>4</t>
@@ -424,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -22,7 +22,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>8</t>
+    <t>5</t>
   </si>
   <si>
     <t>4</t>
@@ -424,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
